--- a/techniqo/data_new_ticker/MARICO.xlsx
+++ b/techniqo/data_new_ticker/MARICO.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1412"/>
+  <dimension ref="A1:G1414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49806,6 +49806,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="1413">
+      <c r="A1413" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B1413" t="n">
+        <v>370.55</v>
+      </c>
+      <c r="C1413" t="n">
+        <v>370.55</v>
+      </c>
+      <c r="D1413" t="n">
+        <v>363.15</v>
+      </c>
+      <c r="E1413" t="n">
+        <v>364.5</v>
+      </c>
+      <c r="F1413" t="n">
+        <v>1514131</v>
+      </c>
+      <c r="G1413" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="1414">
+      <c r="A1414" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B1414" t="n">
+        <v>365</v>
+      </c>
+      <c r="C1414" t="n">
+        <v>366.4</v>
+      </c>
+      <c r="D1414" t="n">
+        <v>362.7</v>
+      </c>
+      <c r="E1414" t="n">
+        <v>364.35</v>
+      </c>
+      <c r="F1414" t="n">
+        <v>1196128</v>
+      </c>
+      <c r="G1414" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/MARICO.xlsx
+++ b/techniqo/data_new_ticker/MARICO.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1414"/>
+  <dimension ref="A1:G1416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49856,6 +49856,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="1415">
+      <c r="A1415" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B1415" t="n">
+        <v>365.95</v>
+      </c>
+      <c r="C1415" t="n">
+        <v>368.75</v>
+      </c>
+      <c r="D1415" t="n">
+        <v>360.55</v>
+      </c>
+      <c r="E1415" t="n">
+        <v>361.65</v>
+      </c>
+      <c r="F1415" t="n">
+        <v>1816429</v>
+      </c>
+      <c r="G1415" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="1416">
+      <c r="A1416" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B1416" t="n">
+        <v>363.65</v>
+      </c>
+      <c r="C1416" t="n">
+        <v>364</v>
+      </c>
+      <c r="D1416" t="n">
+        <v>356.45</v>
+      </c>
+      <c r="E1416" t="n">
+        <v>362.5</v>
+      </c>
+      <c r="F1416" t="n">
+        <v>2445839</v>
+      </c>
+      <c r="G1416" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
